--- a/insumos/Parte1_requerimiento2y3.xlsx
+++ b/insumos/Parte1_requerimiento2y3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Emprendiendo\Capacitaciones\Desafio_Latam\Ruby_On_Rails\Bootcamp\2022.04.05_biblioteca\insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCDFAC6-58F1-4F1E-BA2E-2949CDA22A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4FE49B-6AA3-4320-A357-A47E8BF63758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F8C6C72E-6F90-4C8D-AE57-FB3B2C310689}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{F8C6C72E-6F90-4C8D-AE57-FB3B2C310689}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo lógico" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t xml:space="preserve">SOCIO </t>
   </si>
@@ -134,18 +134,12 @@
     <t>4. PRÉSTAMO</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>VARCHAR(20) NOT NULL</t>
   </si>
   <si>
     <t xml:space="preserve">VARCHAR </t>
   </si>
   <si>
-    <t>INT NOT NULL</t>
-  </si>
-  <si>
     <t>SERIAL</t>
   </si>
   <si>
@@ -209,12 +203,6 @@
     <t>coautor [FK]</t>
   </si>
   <si>
-    <t>INT NOT NULL REFERENCES socio</t>
-  </si>
-  <si>
-    <t>INT NOT NULL REFERENCES libro</t>
-  </si>
-  <si>
     <t>INT REFERENCES autor</t>
   </si>
   <si>
@@ -240,6 +228,21 @@
   </si>
   <si>
     <t>Multa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR(10) </t>
+  </si>
+  <si>
+    <t>VARCHAR(12) NOT NULL</t>
+  </si>
+  <si>
+    <t>VARCHAR(10) NOT NULL REFERENCES socio</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>VARCHAR(15) NOT NULL REFERENCES libro</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F352623-94A4-46C6-98BE-8895FD3DC48C}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1256,7 +1259,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1269,7 +1272,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1282,7 +1285,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1319,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1329,7 +1332,7 @@
     <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.453125" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.453125" customWidth="1"/>
@@ -1441,161 +1444,161 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="9"/>
     </row>
@@ -1605,10 +1608,10 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1624,10 +1627,10 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1643,10 +1646,10 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1662,10 +1665,10 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1696,7 +1699,7 @@
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/insumos/Parte1_requerimiento2y3.xlsx
+++ b/insumos/Parte1_requerimiento2y3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Emprendiendo\Capacitaciones\Desafio_Latam\Ruby_On_Rails\Bootcamp\2022.04.05_biblioteca\insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4FE49B-6AA3-4320-A357-A47E8BF63758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE503C2-1B93-4AE2-908D-804D8E0D59CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{F8C6C72E-6F90-4C8D-AE57-FB3B2C310689}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>SERIAL</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>VARCHAR NOT NULL</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>VARCHAR(15) NOT NULL REFERENCES libro</t>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1259,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1272,7 +1272,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1285,7 +1285,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1322,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1444,28 +1444,28 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>34</v>
@@ -1475,7 +1475,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>32</v>
@@ -1484,21 +1484,21 @@
         <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>32</v>
@@ -1508,28 +1508,28 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>32</v>
@@ -1539,66 +1539,66 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="M10" s="9"/>
     </row>
@@ -1608,10 +1608,10 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1627,10 +1627,10 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1646,10 +1646,10 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1665,10 +1665,10 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>

--- a/insumos/Parte1_requerimiento2y3.xlsx
+++ b/insumos/Parte1_requerimiento2y3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Emprendiendo\Capacitaciones\Desafio_Latam\Ruby_On_Rails\Bootcamp\2022.04.05_biblioteca\insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE503C2-1B93-4AE2-908D-804D8E0D59CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD0745-32FE-4EF6-A5E1-5942F025A866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{F8C6C72E-6F90-4C8D-AE57-FB3B2C310689}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F8C6C72E-6F90-4C8D-AE57-FB3B2C310689}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo lógico" sheetId="1" r:id="rId1"/>
@@ -36,73 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
-  <si>
-    <t xml:space="preserve">SOCIO </t>
-  </si>
-  <si>
-    <t>RUT [PK]</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>PRÉSTAMO</t>
-  </si>
-  <si>
-    <t>Id [PK]</t>
-  </si>
-  <si>
-    <t>Socio [FK]</t>
-  </si>
-  <si>
-    <t>Libro [FK]</t>
-  </si>
-  <si>
-    <t>Fecha_inicio</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Devolucion_teorica</t>
-  </si>
-  <si>
-    <t>Devolucion_real</t>
-  </si>
-  <si>
-    <t>LIBRO</t>
-  </si>
-  <si>
-    <t>ISBN [PK]</t>
-  </si>
-  <si>
-    <t>Titulo</t>
-  </si>
-  <si>
-    <t>Paginas</t>
-  </si>
-  <si>
-    <t>Autor [FK]</t>
-  </si>
-  <si>
-    <t>Coautor [FK]</t>
-  </si>
-  <si>
-    <t>AUTOR</t>
-  </si>
-  <si>
-    <t>Fecha_nacimiento</t>
-  </si>
-  <si>
-    <t>Fecha_fallecimiento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t xml:space="preserve">       0          :N</t>
   </si>
@@ -209,24 +143,9 @@
     <t>fecha_fallecimiento</t>
   </si>
   <si>
-    <t>multa_diaria</t>
-  </si>
-  <si>
-    <t>dias_multa</t>
-  </si>
-  <si>
     <t>multa</t>
   </si>
   <si>
-    <t>Multa_diaria</t>
-  </si>
-  <si>
-    <t>Dias_multa</t>
-  </si>
-  <si>
-    <t>Multa</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARCHAR(10) </t>
   </si>
   <si>
@@ -243,6 +162,30 @@
   </si>
   <si>
     <t>VARCHAR(4)</t>
+  </si>
+  <si>
+    <t>prestamo [FK]</t>
+  </si>
+  <si>
+    <t>devolucion_teorica [FK]</t>
+  </si>
+  <si>
+    <t>INT NOT NULL REFERENCES prestamo</t>
+  </si>
+  <si>
+    <t>fecha_inicio [FK]</t>
+  </si>
+  <si>
+    <t>5. DEVOLUCIÓN</t>
+  </si>
+  <si>
+    <t>dias_atraso</t>
+  </si>
+  <si>
+    <t>DATE NOT NULL REFERENCES prestamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1:          1</t>
   </si>
 </sst>
 </file>
@@ -421,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -446,6 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,32 +411,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1346200</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector recto 2">
+        <xdr:cNvPr id="13" name="Conector recto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50154A66-9ED6-5E6F-254E-5774BF7C306A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B924C7-F759-4C70-A907-39A65EEE2DDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1397000" y="1079500"/>
-          <a:ext cx="762000" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3012528" y="1272263"/>
+          <a:ext cx="736600" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -517,32 +461,132 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1346200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector recto 5">
+        <xdr:cNvPr id="14" name="Conector recto 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6604A2-C0DB-486D-ABE2-9148AE62EE59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D3E868-1180-4B23-BDF9-968794E1B977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3517900" y="1092200"/>
-          <a:ext cx="762000" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3012528" y="2213814"/>
+          <a:ext cx="736600" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector recto 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DBD295-71DE-41E9-8F78-F52678D67FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1487068" y="2213814"/>
+          <a:ext cx="736600" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89567</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D322DFD-09F0-4953-A757-DD9B039E61E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5129194" y="1454067"/>
+          <a:ext cx="44450" cy="7684"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -568,31 +612,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1347524</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>726538</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88345</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Conector recto 6">
+        <xdr:cNvPr id="17" name="Conector recto 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E049E311-39BF-44CD-B9CF-9A6790C2E111}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF209285-BDAC-4C04-B68A-A8999705C6F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5645150" y="1092200"/>
-          <a:ext cx="762000" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="5106432" y="1271073"/>
+          <a:ext cx="736600" cy="6985"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -622,23 +666,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Conector recto 1">
+        <xdr:cNvPr id="10" name="Conector recto 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44DDEB0-40E4-4ED9-B55D-0228A4E4A130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492C2578-2DE5-42DB-A3E7-FCC8B4EB08B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -646,7 +690,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2781300" y="1263650"/>
+          <a:off x="4057162" y="1303704"/>
           <a:ext cx="736600" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -673,22 +717,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector recto 5">
+        <xdr:cNvPr id="11" name="Conector recto 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9ECA60-F9A5-4BAE-A738-763971CE7D6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E8F53C-CE55-4C76-A035-71D4540046D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -696,7 +740,57 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5308600" y="1263650"/>
+          <a:off x="8746392" y="5123473"/>
+          <a:ext cx="736600" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC2187E-7AD8-426A-A7A5-963D3E64CE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8746392" y="6080858"/>
           <a:ext cx="736600" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -724,21 +818,21 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>81883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>89567</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Conector recto 6">
+        <xdr:cNvPr id="13" name="Conector recto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469BE0FB-0792-4C20-BC20-673D20E43BB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B090B0E0-0E69-4AB3-9BF6-11AB66409198}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,7 +840,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8331200" y="1262983"/>
+          <a:off x="13435623" y="1869652"/>
           <a:ext cx="736600" cy="7684"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1070,20 +1164,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F352623-94A4-46C6-98BE-8895FD3DC48C}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="0.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -1100,7 +1194,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1123,188 +1217,267 @@
     </row>
     <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
+      <c r="D5" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="4.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="4.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
@@ -1320,23 +1493,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="B1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.453125" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1358,7 +1531,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="19" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1389,317 +1562,331 @@
     </row>
     <row r="4" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
-      <c r="B4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="16"/>
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="8"/>
       <c r="E5" s="17" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="K7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="16"/>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J9" s="8"/>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
-      <c r="B10" s="12" t="s">
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
+      <c r="L10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="L16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" ht="4.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/insumos/Parte1_requerimiento2y3.xlsx
+++ b/insumos/Parte1_requerimiento2y3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Emprendiendo\Capacitaciones\Desafio_Latam\Ruby_On_Rails\Bootcamp\2022.04.05_biblioteca\insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD0745-32FE-4EF6-A5E1-5942F025A866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D122168D-DA6B-47CA-8C94-D2F536305FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F8C6C72E-6F90-4C8D-AE57-FB3B2C310689}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{F8C6C72E-6F90-4C8D-AE57-FB3B2C310689}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo lógico" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
   <si>
     <t xml:space="preserve">       0          :N</t>
   </si>
   <si>
-    <t xml:space="preserve">       N:          0</t>
-  </si>
-  <si>
     <t>MODELO LÓGICO - BIBLIOTECA</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>3. LIBRO</t>
   </si>
   <si>
-    <t>4. PRÉSTAMO</t>
-  </si>
-  <si>
     <t>VARCHAR(20) NOT NULL</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>autor [FK]</t>
   </si>
   <si>
-    <t>coautor [FK]</t>
-  </si>
-  <si>
     <t>INT REFERENCES autor</t>
   </si>
   <si>
@@ -176,16 +167,40 @@
     <t>fecha_inicio [FK]</t>
   </si>
   <si>
-    <t>5. DEVOLUCIÓN</t>
-  </si>
-  <si>
     <t>dias_atraso</t>
   </si>
   <si>
     <t>DATE NOT NULL REFERENCES prestamo</t>
   </si>
   <si>
-    <t xml:space="preserve">       1:          1</t>
+    <t>5. PRÉSTAMO</t>
+  </si>
+  <si>
+    <t>6. DEVOLUCIÓN</t>
+  </si>
+  <si>
+    <t>4. REGISTRO LIBRO AUTORES</t>
+  </si>
+  <si>
+    <t>isbn [FK]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo_autor </t>
+  </si>
+  <si>
+    <t>VARCHAR(7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1          :1</t>
+  </si>
+  <si>
+    <t>autores_id [FK]</t>
+  </si>
+  <si>
+    <t>autores_id</t>
+  </si>
+  <si>
+    <t>INT REFERENCES libro</t>
   </si>
 </sst>
 </file>
@@ -376,9 +391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -386,10 +398,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,161 +426,11 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Conector recto 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B924C7-F759-4C70-A907-39A65EEE2DDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3012528" y="1272263"/>
-          <a:ext cx="736600" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conector recto 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D3E868-1180-4B23-BDF9-968794E1B977}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3012528" y="2213814"/>
-          <a:ext cx="736600" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Conector recto 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DBD295-71DE-41E9-8F78-F52678D67FCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1487068" y="2213814"/>
-          <a:ext cx="736600" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>81883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>89567</xdr:rowOff>
@@ -585,7 +448,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5129194" y="1454067"/>
+          <a:off x="3949700" y="1605883"/>
           <a:ext cx="44450" cy="7684"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -611,23 +474,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1347524</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>726538</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88345</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8581</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124426</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Conector recto 16">
+        <xdr:cNvPr id="7" name="Conector recto 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF209285-BDAC-4C04-B68A-A8999705C6F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBCA7E7-D04D-4E5E-A625-9EA99924EA1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1246909" y="1843855"/>
+          <a:ext cx="1855854" cy="844"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>830305</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE9D835-36E2-40CD-A6C9-1712BB67971C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -635,8 +548,208 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5106432" y="1271073"/>
-          <a:ext cx="736600" cy="6985"/>
+          <a:off x="1246909" y="2567665"/>
+          <a:ext cx="830305" cy="65"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4097</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4261</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CB8400-E311-46DA-9908-35CE089352EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3941097" y="2566815"/>
+          <a:ext cx="1362528" cy="3750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>73741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6485</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76019</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274E78E0-2303-454F-965E-6ACEFC3C4B40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3937000" y="1794014"/>
+          <a:ext cx="1368849" cy="2278"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8677</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>124601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17258</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125445</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65E607C-FB68-4F3D-9535-E35463BA1DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6150859" y="2237419"/>
+          <a:ext cx="1370944" cy="844"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6672</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121754</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D82311-CC20-4076-BAB0-418D7661A14D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8347364" y="2233728"/>
+          <a:ext cx="1369035" cy="844"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -666,23 +779,73 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8581</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>124426</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Conector recto 9">
+        <xdr:cNvPr id="6" name="Conector recto 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492C2578-2DE5-42DB-A3E7-FCC8B4EB08B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0132E8F8-BD2F-4023-9AC2-213063B4F787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2720203" y="1809764"/>
+          <a:ext cx="845236" cy="844"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1842634</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>830305</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector recto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BAC2E0-BCD6-4785-8C84-0206D0AEA53D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -690,8 +853,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4057162" y="1303704"/>
-          <a:ext cx="736600" cy="6350"/>
+          <a:off x="3092790" y="2514422"/>
+          <a:ext cx="835975" cy="65"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -717,31 +880,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>4097</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4261</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto 10">
+        <xdr:cNvPr id="15" name="Conector recto 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E8F53C-CE55-4C76-A035-71D4540046D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E6B29-0BE2-4913-918F-A121FF7FF4B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8746392" y="5123473"/>
-          <a:ext cx="736600" cy="6350"/>
+        <a:xfrm>
+          <a:off x="8595032" y="2531806"/>
+          <a:ext cx="840003" cy="3750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -766,32 +929,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3293806</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>73741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6485</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76019</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Conector recto 11">
+        <xdr:cNvPr id="16" name="Conector recto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC2187E-7AD8-426A-A7A5-963D3E64CE56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4746EEAA-4B1A-49C4-84C4-96B749084227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8746392" y="6080858"/>
-          <a:ext cx="736600" cy="6350"/>
+        <a:xfrm>
+          <a:off x="8590935" y="1769806"/>
+          <a:ext cx="846324" cy="2278"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -817,31 +980,81 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>81883</xdr:rowOff>
+      <xdr:colOff>8677</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>124601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89567</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>17258</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125445</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Conector recto 12">
+        <xdr:cNvPr id="17" name="Conector recto 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B090B0E0-0E69-4AB3-9BF6-11AB66409198}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58245397-5D69-4F70-B99C-DDFD9E7B05D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13435623" y="1869652"/>
-          <a:ext cx="736600" cy="7684"/>
+        <a:xfrm>
+          <a:off x="12262461" y="2188351"/>
+          <a:ext cx="845236" cy="844"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2567625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6672</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121754</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector recto 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DB57CC-E7E6-4CD3-AF9B-78F5971FED5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17032334" y="2203119"/>
+          <a:ext cx="850326" cy="844"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1164,23 +1377,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F352623-94A4-46C6-98BE-8895FD3DC48C}">
-  <dimension ref="A1:I20"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="L24" sqref="A1:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0.7265625" customWidth="1"/>
+    <col min="12" max="12" width="0.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1189,12 +1411,14 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1202,9 +1426,11 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1213,277 +1439,365 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="20" t="s">
-        <v>3</v>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="20" t="s">
-        <v>3</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
-      <c r="B13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" ht="4.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" ht="7" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1493,27 +1807,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="Q25" sqref="A1:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0.7265625" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="19.453125" customWidth="1"/>
     <col min="9" max="9" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="19.453125" customWidth="1"/>
     <col min="12" max="12" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0.81640625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.7265625" customWidth="1"/>
+    <col min="17" max="17" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1526,12 +1847,15 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1543,9 +1867,12 @@
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1558,335 +1885,572 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
-      <c r="E4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="16"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="8"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="K7" s="15" t="s">
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="E10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="10" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="N13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="F18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" ht="4.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="F23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" ht="7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" ht="7" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>